--- a/seeder/States.xlsx
+++ b/seeder/States.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>stateName</t>
   </si>
@@ -101,6 +101,30 @@
   </si>
   <si>
     <t>West Bengal</t>
+  </si>
+  <si>
+    <t>Ladakh</t>
+  </si>
+  <si>
+    <t>Lakshadweep</t>
+  </si>
+  <si>
+    <t>Andaman and Nicobar Islands</t>
+  </si>
+  <si>
+    <t>Dadra and Nagar Haveli and Daman &amp; Diu</t>
+  </si>
+  <si>
+    <t>Chandigarh</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Puducherry</t>
+  </si>
+  <si>
+    <t>Jammu &amp; Kashmir</t>
   </si>
 </sst>
 </file>
@@ -125,7 +149,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -500,7 +524,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:A37"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -514,62 +538,62 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -655,10 +679,44 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="3"/>
+      <c r="A30" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="4"/>
+      <c r="A31" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
